--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1276,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1292,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1308,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1281,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1276,14 +1371,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1403,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1376,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1371,7 +1466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1387,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1498,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1514,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1530,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,171 +457,431 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.14</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -688,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -726,26 +986,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -764,26 +1024,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1028,26 +1288,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1066,26 +1326,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1104,308 +1364,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1419,144 +1397,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -938,112 +955,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>006282</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1118,26 +1059,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1156,26 +1097,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1194,26 +1135,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1288,22 +1229,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1326,22 +1267,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1364,22 +1305,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1392,6 +1333,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/NOVN-诺华.xlsx
+++ b/数据整理/stocks/其他/NOVN-诺华.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +870,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -777,26 +964,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -871,26 +1058,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -965,26 +1152,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,7 +1206,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1049,112 +1236,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
+          <t>006282</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1229,26 +1340,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1267,26 +1378,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1305,26 +1416,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1399,22 +1510,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1437,22 +1548,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0565</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1475,22 +1586,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1510,51 +1621,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1574,17 +1685,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1592,7 +1703,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1612,17 +1723,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0565</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1630,7 +1741,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1645,29 +1756,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>